--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t xml:space="preserve">test4 </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test4 </t>
+          <t>test</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t xml:space="preserve">test </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>follow up</t>
+          <t xml:space="preserve">follow up </t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test </t>
+          <t>test</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test </t>
+          <t xml:space="preserve">test  </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test  </t>
+          <t xml:space="preserve">test   </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test   </t>
+          <t xml:space="preserve">test    </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test    </t>
+          <t xml:space="preserve">test     </t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/inputs/AddictO_Research_activity_Defs.xlsx
+++ b/inputs/AddictO_Research_activity_Defs.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">test     </t>
+          <t>test</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
